--- a/Uongbi_API_Full_Spec.xlsx
+++ b/Uongbi_API_Full_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63200271\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Cloud\OneDrive - HH2\Desktop\uongbi-client-ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B770A-6489-4D59-B9D4-5B13F654C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E7FC0-E973-4EED-8CDD-B4137087E9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6045" yWindow="-19395" windowWidth="23730" windowHeight="17955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_INDEX" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,16 @@
     <sheet name="ERROR_CODES" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="193">
   <si>
     <t>Group</t>
   </si>
@@ -593,10 +598,6 @@
     <t>slugs:string
 featuredLimit:number
 itemsLimit:number</t>
-  </si>
-  <si>
-    <t>mainLimit:number
-sidebarLimit:number</t>
   </si>
   <si>
     <t>page:number
@@ -649,9 +650,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -678,10 +687,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,41 +1012,44 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" customWidth="1"/>
-    <col min="6" max="7" width="42.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1035,14 +1062,15 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1055,11 +1083,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1072,14 +1101,15 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1092,14 +1122,15 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1112,11 +1143,12 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1129,11 +1161,12 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1146,14 +1179,13 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1166,11 +1198,12 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1183,11 +1216,12 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1200,11 +1234,12 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1217,14 +1252,15 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1237,11 +1273,12 @@
       <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1254,11 +1291,12 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1271,14 +1309,15 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1291,11 +1330,12 @@
       <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1308,14 +1348,15 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1328,11 +1369,12 @@
       <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1345,14 +1387,15 @@
       <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1365,11 +1408,12 @@
       <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1382,11 +1426,12 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1399,11 +1444,12 @@
       <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1416,11 +1462,12 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1433,11 +1480,12 @@
       <c r="D24" t="s">
         <v>76</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1450,14 +1498,14 @@
       <c r="D25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1470,11 +1518,12 @@
       <c r="D26" t="s">
         <v>84</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -1487,11 +1536,12 @@
       <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1504,11 +1554,12 @@
       <c r="D28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1521,14 +1572,15 @@
       <c r="D29" t="s">
         <v>96</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" t="s">
         <v>97</v>
       </c>
-      <c r="F29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1541,11 +1593,12 @@
       <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -1558,12 +1611,14 @@
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1573,9 +1628,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1589,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1603,7 +1658,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1617,7 +1672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1631,7 +1686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -1645,7 +1700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -1659,7 +1714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -1684,9 +1739,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1775,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1792,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1765,7 +1820,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1793,7 +1848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1807,7 +1862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -1849,9 +1904,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1868,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1885,7 +1940,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1902,7 +1957,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1919,7 +1974,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1936,7 +1991,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1953,7 +2008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1970,7 +2025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1987,7 +2042,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2004,7 +2059,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2032,9 +2087,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -2045,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -2056,7 +2111,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -2067,7 +2122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -2078,7 +2133,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -2089,7 +2144,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -2100,7 +2155,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -2111,7 +2166,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -2122,7 +2177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>180</v>
       </c>
